--- a/PythonResources/Data/Consumption/Sympheny/post_1349_hea.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/post_1349_hea.xlsx
@@ -599,7 +599,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>54.66624777046208</v>
+        <v>54.66624777046207</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -647,7 +647,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>36.17551672820182</v>
+        <v>36.17551672820181</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -655,7 +655,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>31.85916647079753</v>
+        <v>31.85916647079752</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -775,7 +775,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>93.02778137603887</v>
+        <v>93.02778137603886</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -967,7 +967,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>23.17166167175927</v>
+        <v>23.17166167175926</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -999,7 +999,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>6.252465460112739</v>
+        <v>6.252465460112738</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1007,7 +1007,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>3.656412892546677</v>
+        <v>3.656412892546676</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1231,7 +1231,7 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>24.91898051136208</v>
+        <v>24.91898051136207</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1791,7 +1791,7 @@
         <v>181</v>
       </c>
       <c r="B181">
-        <v>57.97091680240741</v>
+        <v>57.9709168024074</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -1935,7 +1935,7 @@
         <v>199</v>
       </c>
       <c r="B199">
-        <v>98.08530829021772</v>
+        <v>98.0853082902177</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -2111,7 +2111,7 @@
         <v>221</v>
       </c>
       <c r="B221">
-        <v>145.3192745202281</v>
+        <v>145.319274520228</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2143,7 +2143,7 @@
         <v>225</v>
       </c>
       <c r="B225">
-        <v>53.16074184485875</v>
+        <v>53.16074184485874</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2519,7 +2519,7 @@
         <v>272</v>
       </c>
       <c r="B272">
-        <v>40.48102335717565</v>
+        <v>40.48102335717564</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -2535,7 +2535,7 @@
         <v>274</v>
       </c>
       <c r="B274">
-        <v>24.66594297658187</v>
+        <v>24.66594297658186</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -2575,7 +2575,7 @@
         <v>279</v>
       </c>
       <c r="B279">
-        <v>5.276099294812467</v>
+        <v>5.276099294812466</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -3335,7 +3335,7 @@
         <v>374</v>
       </c>
       <c r="B374">
-        <v>34.19083965438719</v>
+        <v>34.19083965438718</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -3543,7 +3543,7 @@
         <v>400</v>
       </c>
       <c r="B400">
-        <v>47.48952417572306</v>
+        <v>47.48952417572305</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -3551,7 +3551,7 @@
         <v>401</v>
       </c>
       <c r="B401">
-        <v>53.14550215084836</v>
+        <v>53.14550215084835</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -3895,7 +3895,7 @@
         <v>444</v>
       </c>
       <c r="B444">
-        <v>85.25260672035338</v>
+        <v>85.25260672035337</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -4407,7 +4407,7 @@
         <v>508</v>
       </c>
       <c r="B508">
-        <v>61.55019339757842</v>
+        <v>61.55019339757841</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -4791,7 +4791,7 @@
         <v>556</v>
       </c>
       <c r="B556">
-        <v>31.59686789119563</v>
+        <v>31.59686789119562</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -5039,7 +5039,7 @@
         <v>587</v>
       </c>
       <c r="B587">
-        <v>74.50158873810059</v>
+        <v>74.50158873810058</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -5047,7 +5047,7 @@
         <v>588</v>
       </c>
       <c r="B588">
-        <v>65.50782470366123</v>
+        <v>65.50782470366121</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -5215,7 +5215,7 @@
         <v>609</v>
       </c>
       <c r="B609">
-        <v>69.08973893818019</v>
+        <v>69.08973893818018</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -5231,7 +5231,7 @@
         <v>611</v>
       </c>
       <c r="B611">
-        <v>58.90552034469844</v>
+        <v>58.90552034469843</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -5263,7 +5263,7 @@
         <v>615</v>
       </c>
       <c r="B615">
-        <v>36.43517766845577</v>
+        <v>36.43517766845576</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -5271,7 +5271,7 @@
         <v>616</v>
       </c>
       <c r="B616">
-        <v>31.94562242720263</v>
+        <v>31.94562242720262</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -5759,7 +5759,7 @@
         <v>677</v>
       </c>
       <c r="B677">
-        <v>147.6447932120059</v>
+        <v>147.6447932120058</v>
       </c>
     </row>
     <row r="678" spans="1:2">
@@ -6047,7 +6047,7 @@
         <v>713</v>
       </c>
       <c r="B713">
-        <v>44.41989811678413</v>
+        <v>44.41989811678412</v>
       </c>
     </row>
     <row r="714" spans="1:2">
@@ -6231,7 +6231,7 @@
         <v>736</v>
       </c>
       <c r="B736">
-        <v>30.21708944117801</v>
+        <v>30.217089441178</v>
       </c>
     </row>
     <row r="737" spans="1:2">
@@ -6383,7 +6383,7 @@
         <v>755</v>
       </c>
       <c r="B755">
-        <v>59.4767157990494</v>
+        <v>59.47671579904939</v>
       </c>
     </row>
     <row r="756" spans="1:2">
@@ -6543,7 +6543,7 @@
         <v>775</v>
       </c>
       <c r="B775">
-        <v>115.4351137789694</v>
+        <v>115.4351137789693</v>
       </c>
     </row>
     <row r="776" spans="1:2">
@@ -7279,7 +7279,7 @@
         <v>867</v>
       </c>
       <c r="B867">
-        <v>46.60825956246839</v>
+        <v>46.60825956246838</v>
       </c>
     </row>
     <row r="868" spans="1:2">
@@ -7343,7 +7343,7 @@
         <v>875</v>
       </c>
       <c r="B875">
-        <v>83.14513288133965</v>
+        <v>83.14513288133963</v>
       </c>
     </row>
     <row r="876" spans="1:2">
@@ -7535,7 +7535,7 @@
         <v>899</v>
       </c>
       <c r="B899">
-        <v>75.10971114332288</v>
+        <v>75.10971114332287</v>
       </c>
     </row>
     <row r="900" spans="1:2">
@@ -7703,7 +7703,7 @@
         <v>920</v>
       </c>
       <c r="B920">
-        <v>69.58180521209259</v>
+        <v>69.58180521209258</v>
       </c>
     </row>
     <row r="921" spans="1:2">
@@ -7735,7 +7735,7 @@
         <v>924</v>
       </c>
       <c r="B924">
-        <v>47.20202148679628</v>
+        <v>47.20202148679627</v>
       </c>
     </row>
     <row r="925" spans="1:2">
@@ -7967,7 +7967,7 @@
         <v>953</v>
       </c>
       <c r="B953">
-        <v>28.10146822728949</v>
+        <v>28.10146822728948</v>
       </c>
     </row>
     <row r="954" spans="1:2">
@@ -8471,7 +8471,7 @@
         <v>1016</v>
       </c>
       <c r="B1016">
-        <v>99.03046238990056</v>
+        <v>99.03046238990052</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
@@ -8527,7 +8527,7 @@
         <v>1023</v>
       </c>
       <c r="B1023">
-        <v>45.38029191047736</v>
+        <v>45.38029191047735</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
@@ -8919,7 +8919,7 @@
         <v>1072</v>
       </c>
       <c r="B1072">
-        <v>18.56663644127355</v>
+        <v>18.56663644127354</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
@@ -9079,7 +9079,7 @@
         <v>1092</v>
       </c>
       <c r="B1092">
-        <v>43.11543892370248</v>
+        <v>43.11543892370247</v>
       </c>
     </row>
     <row r="1093" spans="1:2">
@@ -9095,7 +9095,7 @@
         <v>1094</v>
       </c>
       <c r="B1094">
-        <v>38.66691362786192</v>
+        <v>38.66691362786191</v>
       </c>
     </row>
     <row r="1095" spans="1:2">
@@ -9231,7 +9231,7 @@
         <v>1111</v>
       </c>
       <c r="B1111">
-        <v>84.32005467533298</v>
+        <v>84.32005467533297</v>
       </c>
     </row>
     <row r="1112" spans="1:2">
@@ -9271,7 +9271,7 @@
         <v>1116</v>
       </c>
       <c r="B1116">
-        <v>58.07759466048014</v>
+        <v>58.07759466048013</v>
       </c>
     </row>
     <row r="1117" spans="1:2">
@@ -9279,7 +9279,7 @@
         <v>1117</v>
       </c>
       <c r="B1117">
-        <v>57.44573350112628</v>
+        <v>57.44573350112627</v>
       </c>
     </row>
     <row r="1118" spans="1:2">
@@ -9287,7 +9287,7 @@
         <v>1118</v>
       </c>
       <c r="B1118">
-        <v>56.29718810061247</v>
+        <v>56.29718810061246</v>
       </c>
     </row>
     <row r="1119" spans="1:2">
@@ -9303,7 +9303,7 @@
         <v>1120</v>
       </c>
       <c r="B1120">
-        <v>56.65121791531537</v>
+        <v>56.65121791531536</v>
       </c>
     </row>
     <row r="1121" spans="1:2">
@@ -10191,7 +10191,7 @@
         <v>1231</v>
       </c>
       <c r="B1231">
-        <v>53.90191850163329</v>
+        <v>53.90191850163328</v>
       </c>
     </row>
     <row r="1232" spans="1:2">
@@ -10199,7 +10199,7 @@
         <v>1232</v>
       </c>
       <c r="B1232">
-        <v>43.91786742755724</v>
+        <v>43.91786742755723</v>
       </c>
     </row>
     <row r="1233" spans="1:2">
@@ -10367,7 +10367,7 @@
         <v>1253</v>
       </c>
       <c r="B1253">
-        <v>97.65156315299892</v>
+        <v>97.6515631529989</v>
       </c>
     </row>
     <row r="1254" spans="1:2">
@@ -11207,7 +11207,7 @@
         <v>1358</v>
       </c>
       <c r="B1358">
-        <v>9.802874557975608</v>
+        <v>9.802874557975606</v>
       </c>
     </row>
     <row r="1359" spans="1:2">
@@ -11407,7 +11407,7 @@
         <v>1383</v>
       </c>
       <c r="B1383">
-        <v>2.652703199339301</v>
+        <v>2.6527031993393</v>
       </c>
     </row>
     <row r="1384" spans="1:2">
@@ -11919,7 +11919,7 @@
         <v>1447</v>
       </c>
       <c r="B1447">
-        <v>89.36175575342411</v>
+        <v>89.36175575342409</v>
       </c>
     </row>
     <row r="1448" spans="1:2">
@@ -12551,7 +12551,7 @@
         <v>1526</v>
       </c>
       <c r="B1526">
-        <v>41.03375533609094</v>
+        <v>41.03375533609093</v>
       </c>
     </row>
     <row r="1527" spans="1:2">
@@ -12687,7 +12687,7 @@
         <v>1543</v>
       </c>
       <c r="B1543">
-        <v>99.0550803571481</v>
+        <v>99.05508035714809</v>
       </c>
     </row>
     <row r="1544" spans="1:2">
@@ -12719,7 +12719,7 @@
         <v>1547</v>
       </c>
       <c r="B1547">
-        <v>35.6608839843125</v>
+        <v>35.66088398431249</v>
       </c>
     </row>
     <row r="1548" spans="1:2">
@@ -12895,7 +12895,7 @@
         <v>1569</v>
       </c>
       <c r="B1569">
-        <v>25.26143402003786</v>
+        <v>25.26143402003785</v>
       </c>
     </row>
     <row r="1570" spans="1:2">
@@ -13079,7 +13079,7 @@
         <v>1592</v>
       </c>
       <c r="B1592">
-        <v>17.6332637973449</v>
+        <v>17.63326379734489</v>
       </c>
     </row>
     <row r="1593" spans="1:2">
@@ -13127,7 +13127,7 @@
         <v>1598</v>
       </c>
       <c r="B1598">
-        <v>39.87231480987603</v>
+        <v>39.87231480987602</v>
       </c>
     </row>
     <row r="1599" spans="1:2">
@@ -13295,7 +13295,7 @@
         <v>1619</v>
       </c>
       <c r="B1619">
-        <v>54.64602586879445</v>
+        <v>54.64602586879444</v>
       </c>
     </row>
     <row r="1620" spans="1:2">
@@ -13319,7 +13319,7 @@
         <v>1622</v>
       </c>
       <c r="B1622">
-        <v>35.25585980888252</v>
+        <v>35.25585980888251</v>
       </c>
     </row>
     <row r="1623" spans="1:2">
@@ -13847,7 +13847,7 @@
         <v>1688</v>
       </c>
       <c r="B1688">
-        <v>90.01354574340694</v>
+        <v>90.01354574340692</v>
       </c>
     </row>
     <row r="1689" spans="1:2">
@@ -14095,7 +14095,7 @@
         <v>1719</v>
       </c>
       <c r="B1719">
-        <v>21.39600286271791</v>
+        <v>21.3960028627179</v>
       </c>
     </row>
     <row r="1720" spans="1:2">
@@ -14103,7 +14103,7 @@
         <v>1720</v>
       </c>
       <c r="B1720">
-        <v>20.01894997335985</v>
+        <v>20.01894997335984</v>
       </c>
     </row>
     <row r="1721" spans="1:2">
@@ -14207,7 +14207,7 @@
         <v>1733</v>
       </c>
       <c r="B1733">
-        <v>90.19759435568626</v>
+        <v>90.19759435568623</v>
       </c>
     </row>
     <row r="1734" spans="1:2">
@@ -14271,7 +14271,7 @@
         <v>1741</v>
       </c>
       <c r="B1741">
-        <v>19.42249179547628</v>
+        <v>19.42249179547627</v>
       </c>
     </row>
     <row r="1742" spans="1:2">
@@ -14279,7 +14279,7 @@
         <v>1742</v>
       </c>
       <c r="B1742">
-        <v>16.50942428539024</v>
+        <v>16.50942428539023</v>
       </c>
     </row>
     <row r="1743" spans="1:2">
@@ -14607,7 +14607,7 @@
         <v>1783</v>
       </c>
       <c r="B1783">
-        <v>55.75910967363024</v>
+        <v>55.75910967363023</v>
       </c>
     </row>
     <row r="1784" spans="1:2">
@@ -15183,7 +15183,7 @@
         <v>1855</v>
       </c>
       <c r="B1855">
-        <v>81.21701851798666</v>
+        <v>81.21701851798665</v>
       </c>
     </row>
     <row r="1856" spans="1:2">
@@ -15407,7 +15407,7 @@
         <v>1883</v>
       </c>
       <c r="B1883">
-        <v>28.30565081992485</v>
+        <v>28.30565081992484</v>
       </c>
     </row>
     <row r="1884" spans="1:2">
@@ -15551,7 +15551,7 @@
         <v>1901</v>
       </c>
       <c r="B1901">
-        <v>74.34596801657142</v>
+        <v>74.3459680165714</v>
       </c>
     </row>
     <row r="1902" spans="1:2">
@@ -15567,7 +15567,7 @@
         <v>1903</v>
       </c>
       <c r="B1903">
-        <v>44.4527220731142</v>
+        <v>44.45272207311419</v>
       </c>
     </row>
     <row r="1904" spans="1:2">
@@ -15583,7 +15583,7 @@
         <v>1905</v>
       </c>
       <c r="B1905">
-        <v>29.09014337621354</v>
+        <v>29.09014337621353</v>
       </c>
     </row>
     <row r="1906" spans="1:2">
@@ -15607,7 +15607,7 @@
         <v>1908</v>
       </c>
       <c r="B1908">
-        <v>16.64945362766263</v>
+        <v>16.64945362766262</v>
       </c>
     </row>
     <row r="1909" spans="1:2">
@@ -15623,7 +15623,7 @@
         <v>1910</v>
       </c>
       <c r="B1910">
-        <v>9.458516087548526</v>
+        <v>9.458516087548524</v>
       </c>
     </row>
     <row r="1911" spans="1:2">
@@ -15815,7 +15815,7 @@
         <v>1934</v>
       </c>
       <c r="B1934">
-        <v>4.8612865466912</v>
+        <v>4.861286546691199</v>
       </c>
     </row>
     <row r="1935" spans="1:2">
@@ -16007,7 +16007,7 @@
         <v>1958</v>
       </c>
       <c r="B1958">
-        <v>24.31537140013517</v>
+        <v>24.31537140013516</v>
       </c>
     </row>
     <row r="1959" spans="1:2">
@@ -16567,7 +16567,7 @@
         <v>2028</v>
       </c>
       <c r="B2028">
-        <v>51.31615272752424</v>
+        <v>51.31615272752423</v>
       </c>
     </row>
     <row r="2029" spans="1:2">
@@ -16943,7 +16943,7 @@
         <v>2075</v>
       </c>
       <c r="B2075">
-        <v>35.62014710993857</v>
+        <v>35.62014710993856</v>
       </c>
     </row>
     <row r="2076" spans="1:2">
@@ -16967,7 +16967,7 @@
         <v>2078</v>
       </c>
       <c r="B2078">
-        <v>25.10402556517285</v>
+        <v>25.10402556517284</v>
       </c>
     </row>
     <row r="2079" spans="1:2">
@@ -16975,7 +16975,7 @@
         <v>2079</v>
       </c>
       <c r="B2079">
-        <v>22.56688027637772</v>
+        <v>22.56688027637771</v>
       </c>
     </row>
     <row r="2080" spans="1:2">
@@ -17279,7 +17279,7 @@
         <v>2117</v>
       </c>
       <c r="B2117">
-        <v>57.80767623387304</v>
+        <v>57.80767623387303</v>
       </c>
     </row>
     <row r="2118" spans="1:2">
@@ -17335,7 +17335,7 @@
         <v>2124</v>
       </c>
       <c r="B2124">
-        <v>5.446813174832701</v>
+        <v>5.4468131748327</v>
       </c>
     </row>
     <row r="2125" spans="1:2">
@@ -17863,7 +17863,7 @@
         <v>2190</v>
       </c>
       <c r="B2190">
-        <v>68.32804730869935</v>
+        <v>68.32804730869934</v>
       </c>
     </row>
     <row r="2191" spans="1:2">
@@ -18079,7 +18079,7 @@
         <v>2217</v>
       </c>
       <c r="B2217">
-        <v>8.071997003641702</v>
+        <v>8.0719970036417</v>
       </c>
     </row>
     <row r="2218" spans="1:2">
@@ -18087,7 +18087,7 @@
         <v>2218</v>
       </c>
       <c r="B2218">
-        <v>4.355416626857851</v>
+        <v>4.35541662685785</v>
       </c>
     </row>
     <row r="2219" spans="1:2">
@@ -18431,7 +18431,7 @@
         <v>2261</v>
       </c>
       <c r="B2261">
-        <v>0.4643857143108347</v>
+        <v>0.4643857143108346</v>
       </c>
     </row>
     <row r="2262" spans="1:2">
@@ -18447,7 +18447,7 @@
         <v>2263</v>
       </c>
       <c r="B2263">
-        <v>0.4413210235681868</v>
+        <v>0.4413210235681867</v>
       </c>
     </row>
     <row r="2264" spans="1:2">
@@ -19399,7 +19399,7 @@
         <v>2382</v>
       </c>
       <c r="B2382">
-        <v>74.51887992938161</v>
+        <v>74.5188799293816</v>
       </c>
     </row>
     <row r="2383" spans="1:2">
@@ -19439,7 +19439,7 @@
         <v>2387</v>
       </c>
       <c r="B2387">
-        <v>30.21064187832746</v>
+        <v>30.21064187832745</v>
       </c>
     </row>
     <row r="2388" spans="1:2">
@@ -19479,7 +19479,7 @@
         <v>2392</v>
       </c>
       <c r="B2392">
-        <v>8.140136020130464</v>
+        <v>8.140136020130463</v>
       </c>
     </row>
     <row r="2393" spans="1:2">
@@ -19663,7 +19663,7 @@
         <v>2415</v>
       </c>
       <c r="B2415">
-        <v>2.091841429811538</v>
+        <v>2.091841429811537</v>
       </c>
     </row>
     <row r="2416" spans="1:2">
@@ -20783,7 +20783,7 @@
         <v>2555</v>
       </c>
       <c r="B2555">
-        <v>8.082166568683251</v>
+        <v>8.082166568683249</v>
       </c>
     </row>
     <row r="2556" spans="1:2">
@@ -20799,7 +20799,7 @@
         <v>2557</v>
       </c>
       <c r="B2557">
-        <v>5.88360625085357</v>
+        <v>5.883606250853569</v>
       </c>
     </row>
     <row r="2558" spans="1:2">
@@ -21127,7 +21127,7 @@
         <v>2598</v>
       </c>
       <c r="B2598">
-        <v>49.57618997099184</v>
+        <v>49.57618997099183</v>
       </c>
     </row>
     <row r="2599" spans="1:2">
@@ -21175,7 +21175,7 @@
         <v>2604</v>
       </c>
       <c r="B2604">
-        <v>7.015739673202347</v>
+        <v>7.015739673202346</v>
       </c>
     </row>
     <row r="2605" spans="1:2">
@@ -21191,7 +21191,7 @@
         <v>2606</v>
       </c>
       <c r="B2606">
-        <v>2.098804797690132</v>
+        <v>2.098804797690131</v>
       </c>
     </row>
     <row r="2607" spans="1:2">
@@ -21199,7 +21199,7 @@
         <v>2607</v>
       </c>
       <c r="B2607">
-        <v>0.7913445571725913</v>
+        <v>0.7913445571725912</v>
       </c>
     </row>
     <row r="2608" spans="1:2">
@@ -21935,7 +21935,7 @@
         <v>2699</v>
       </c>
       <c r="B2699">
-        <v>24.98908310380987</v>
+        <v>24.98908310380986</v>
       </c>
     </row>
     <row r="2700" spans="1:2">
@@ -22087,7 +22087,7 @@
         <v>2718</v>
       </c>
       <c r="B2718">
-        <v>51.7903416680783</v>
+        <v>51.79034166807829</v>
       </c>
     </row>
     <row r="2719" spans="1:2">
@@ -22103,7 +22103,7 @@
         <v>2720</v>
       </c>
       <c r="B2720">
-        <v>34.86841989577222</v>
+        <v>34.86841989577221</v>
       </c>
     </row>
     <row r="2721" spans="1:2">
@@ -22311,7 +22311,7 @@
         <v>2746</v>
       </c>
       <c r="B2746">
-        <v>5.642672549970078</v>
+        <v>5.642672549970077</v>
       </c>
     </row>
     <row r="2747" spans="1:2">
@@ -23231,7 +23231,7 @@
         <v>2861</v>
       </c>
       <c r="B2861">
-        <v>50.38125611419455</v>
+        <v>50.38125611419454</v>
       </c>
     </row>
     <row r="2862" spans="1:2">
@@ -24023,7 +24023,7 @@
         <v>2960</v>
       </c>
       <c r="B2960">
-        <v>2.124512989201505</v>
+        <v>2.124512989201504</v>
       </c>
     </row>
     <row r="2961" spans="1:2">
@@ -26111,7 +26111,7 @@
         <v>3221</v>
       </c>
       <c r="B3221">
-        <v>3.474943305407572</v>
+        <v>3.474943305407571</v>
       </c>
     </row>
     <row r="3222" spans="1:2">
@@ -27487,7 +27487,7 @@
         <v>3393</v>
       </c>
       <c r="B3393">
-        <v>5.43643846006409</v>
+        <v>5.436438460064089</v>
       </c>
     </row>
     <row r="3394" spans="1:2">
@@ -27639,7 +27639,7 @@
         <v>3412</v>
       </c>
       <c r="B3412">
-        <v>44.83517977856725</v>
+        <v>44.83517977856724</v>
       </c>
     </row>
     <row r="3413" spans="1:2">
@@ -52983,7 +52983,7 @@
         <v>6580</v>
       </c>
       <c r="B6580">
-        <v>3.887851091777541</v>
+        <v>3.88785109177754</v>
       </c>
     </row>
     <row r="6581" spans="1:2">
@@ -52999,7 +52999,7 @@
         <v>6582</v>
       </c>
       <c r="B6582">
-        <v>2.765591232721265</v>
+        <v>2.765591232721264</v>
       </c>
     </row>
     <row r="6583" spans="1:2">
@@ -54359,7 +54359,7 @@
         <v>6752</v>
       </c>
       <c r="B6752">
-        <v>23.21280884558732</v>
+        <v>23.21280884558731</v>
       </c>
     </row>
     <row r="6753" spans="1:2">
@@ -54519,7 +54519,7 @@
         <v>6772</v>
       </c>
       <c r="B6772">
-        <v>65.90053989546743</v>
+        <v>65.90053989546742</v>
       </c>
     </row>
     <row r="6773" spans="1:2">
@@ -54527,7 +54527,7 @@
         <v>6773</v>
       </c>
       <c r="B6773">
-        <v>37.61478859906769</v>
+        <v>37.61478859906768</v>
       </c>
     </row>
     <row r="6774" spans="1:2">
@@ -54735,7 +54735,7 @@
         <v>6799</v>
       </c>
       <c r="B6799">
-        <v>2.626611084767282</v>
+        <v>2.626611084767281</v>
       </c>
     </row>
     <row r="6800" spans="1:2">
@@ -56055,7 +56055,7 @@
         <v>6964</v>
       </c>
       <c r="B6964">
-        <v>58.49023868291531</v>
+        <v>58.4902386829153</v>
       </c>
     </row>
     <row r="6965" spans="1:2">
@@ -56111,7 +56111,7 @@
         <v>6971</v>
       </c>
       <c r="B6971">
-        <v>2.279658935648048</v>
+        <v>2.279658935648047</v>
       </c>
     </row>
     <row r="6972" spans="1:2">
@@ -56247,7 +56247,7 @@
         <v>6988</v>
       </c>
       <c r="B6988">
-        <v>81.72110070448417</v>
+        <v>81.72110070448416</v>
       </c>
     </row>
     <row r="6989" spans="1:2">
@@ -56295,7 +56295,7 @@
         <v>6994</v>
       </c>
       <c r="B6994">
-        <v>5.559205918159327</v>
+        <v>5.559205918159326</v>
       </c>
     </row>
     <row r="6995" spans="1:2">
@@ -58383,7 +58383,7 @@
         <v>7255</v>
       </c>
       <c r="B7255">
-        <v>29.92284611836202</v>
+        <v>29.92284611836201</v>
       </c>
     </row>
     <row r="7256" spans="1:2">
@@ -58415,7 +58415,7 @@
         <v>7259</v>
       </c>
       <c r="B7259">
-        <v>2.11306856514178</v>
+        <v>2.113068565141779</v>
       </c>
     </row>
     <row r="7260" spans="1:2">
@@ -58567,7 +58567,7 @@
         <v>7278</v>
       </c>
       <c r="B7278">
-        <v>26.73168349969023</v>
+        <v>26.73168349969022</v>
       </c>
     </row>
     <row r="7279" spans="1:2">
@@ -58599,7 +58599,7 @@
         <v>7282</v>
       </c>
       <c r="B7282">
-        <v>9.36417652020344</v>
+        <v>9.364176520203438</v>
       </c>
     </row>
     <row r="7283" spans="1:2">
@@ -58623,7 +58623,7 @@
         <v>7285</v>
       </c>
       <c r="B7285">
-        <v>0.1170921374315606</v>
+        <v>0.1170921374315605</v>
       </c>
     </row>
     <row r="7286" spans="1:2">
@@ -58783,7 +58783,7 @@
         <v>7305</v>
       </c>
       <c r="B7305">
-        <v>16.66718442550164</v>
+        <v>16.66718442550163</v>
       </c>
     </row>
     <row r="7306" spans="1:2">
@@ -58823,7 +58823,7 @@
         <v>7310</v>
       </c>
       <c r="B7310">
-        <v>0.5136744015928998</v>
+        <v>0.5136744015928997</v>
       </c>
     </row>
     <row r="7311" spans="1:2">
@@ -59527,7 +59527,7 @@
         <v>7398</v>
       </c>
       <c r="B7398">
-        <v>48.10380107275724</v>
+        <v>48.10380107275723</v>
       </c>
     </row>
     <row r="7399" spans="1:2">
@@ -59551,7 +59551,7 @@
         <v>7401</v>
       </c>
       <c r="B7401">
-        <v>20.71420239837616</v>
+        <v>20.71420239837615</v>
       </c>
     </row>
     <row r="7402" spans="1:2">
@@ -59567,7 +59567,7 @@
         <v>7403</v>
       </c>
       <c r="B7403">
-        <v>10.04078962716089</v>
+        <v>10.04078962716088</v>
       </c>
     </row>
     <row r="7404" spans="1:2">
@@ -59799,7 +59799,7 @@
         <v>7432</v>
       </c>
       <c r="B7432">
-        <v>2.445686609760087</v>
+        <v>2.445686609760086</v>
       </c>
     </row>
     <row r="7433" spans="1:2">
@@ -60295,7 +60295,7 @@
         <v>7494</v>
       </c>
       <c r="B7494">
-        <v>29.9624107085813</v>
+        <v>29.96241070858129</v>
       </c>
     </row>
     <row r="7495" spans="1:2">
@@ -61071,7 +61071,7 @@
         <v>7591</v>
       </c>
       <c r="B7591">
-        <v>68.32599581142873</v>
+        <v>68.32599581142871</v>
       </c>
     </row>
     <row r="7592" spans="1:2">
@@ -61319,7 +61319,7 @@
         <v>7622</v>
       </c>
       <c r="B7622">
-        <v>14.65709809263507</v>
+        <v>14.65709809263506</v>
       </c>
     </row>
     <row r="7623" spans="1:2">
@@ -61631,7 +61631,7 @@
         <v>7661</v>
       </c>
       <c r="B7661">
-        <v>145.7029045098358</v>
+        <v>145.7029045098357</v>
       </c>
     </row>
     <row r="7662" spans="1:2">
@@ -61687,7 +61687,7 @@
         <v>7668</v>
       </c>
       <c r="B7668">
-        <v>29.50639217242425</v>
+        <v>29.50639217242424</v>
       </c>
     </row>
     <row r="7669" spans="1:2">
@@ -62247,7 +62247,7 @@
         <v>7738</v>
       </c>
       <c r="B7738">
-        <v>65.78594911935085</v>
+        <v>65.78594911935083</v>
       </c>
     </row>
     <row r="7739" spans="1:2">
@@ -62287,7 +62287,7 @@
         <v>7743</v>
       </c>
       <c r="B7743">
-        <v>51.68805987558549</v>
+        <v>51.68805987558548</v>
       </c>
     </row>
     <row r="7744" spans="1:2">
@@ -62303,7 +62303,7 @@
         <v>7745</v>
       </c>
       <c r="B7745">
-        <v>53.68563207510122</v>
+        <v>53.68563207510121</v>
       </c>
     </row>
     <row r="7746" spans="1:2">
@@ -62447,7 +62447,7 @@
         <v>7763</v>
       </c>
       <c r="B7763">
-        <v>44.09371005075405</v>
+        <v>44.09371005075404</v>
       </c>
     </row>
     <row r="7764" spans="1:2">
@@ -62463,7 +62463,7 @@
         <v>7765</v>
       </c>
       <c r="B7765">
-        <v>34.38690417925163</v>
+        <v>34.38690417925162</v>
       </c>
     </row>
     <row r="7766" spans="1:2">
@@ -62471,7 +62471,7 @@
         <v>7766</v>
       </c>
       <c r="B7766">
-        <v>32.56283003462342</v>
+        <v>32.56283003462341</v>
       </c>
     </row>
     <row r="7767" spans="1:2">
@@ -62631,7 +62631,7 @@
         <v>7786</v>
       </c>
       <c r="B7786">
-        <v>60.0036575265625</v>
+        <v>60.00365752656249</v>
       </c>
     </row>
     <row r="7787" spans="1:2">
@@ -62655,7 +62655,7 @@
         <v>7789</v>
       </c>
       <c r="B7789">
-        <v>46.14198353995819</v>
+        <v>46.14198353995818</v>
       </c>
     </row>
     <row r="7790" spans="1:2">
@@ -62951,7 +62951,7 @@
         <v>7826</v>
       </c>
       <c r="B7826">
-        <v>6.362279178299145</v>
+        <v>6.362279178299144</v>
       </c>
     </row>
     <row r="7827" spans="1:2">
@@ -63047,7 +63047,7 @@
         <v>7838</v>
       </c>
       <c r="B7838">
-        <v>45.99925794413012</v>
+        <v>45.99925794413011</v>
       </c>
     </row>
     <row r="7839" spans="1:2">
@@ -63607,7 +63607,7 @@
         <v>7908</v>
       </c>
       <c r="B7908">
-        <v>63.05101018656317</v>
+        <v>63.05101018656316</v>
       </c>
     </row>
     <row r="7909" spans="1:2">
@@ -63623,7 +63623,7 @@
         <v>7910</v>
       </c>
       <c r="B7910">
-        <v>39.25041806583666</v>
+        <v>39.25041806583665</v>
       </c>
     </row>
     <row r="7911" spans="1:2">
@@ -63639,7 +63639,7 @@
         <v>7912</v>
       </c>
       <c r="B7912">
-        <v>29.52544178993724</v>
+        <v>29.52544178993723</v>
       </c>
     </row>
     <row r="7913" spans="1:2">
@@ -63751,7 +63751,7 @@
         <v>7926</v>
       </c>
       <c r="B7926">
-        <v>99.01786033523813</v>
+        <v>99.0178603352381</v>
       </c>
     </row>
     <row r="7927" spans="1:2">
@@ -63767,7 +63767,7 @@
         <v>7928</v>
       </c>
       <c r="B7928">
-        <v>53.367356927115</v>
+        <v>53.36735692711499</v>
       </c>
     </row>
     <row r="7929" spans="1:2">
@@ -63775,7 +63775,7 @@
         <v>7929</v>
       </c>
       <c r="B7929">
-        <v>40.16245513815076</v>
+        <v>40.16245513815075</v>
       </c>
     </row>
     <row r="7930" spans="1:2">
@@ -63783,7 +63783,7 @@
         <v>7930</v>
       </c>
       <c r="B7930">
-        <v>29.30012877541439</v>
+        <v>29.30012877541438</v>
       </c>
     </row>
     <row r="7931" spans="1:2">
@@ -63951,7 +63951,7 @@
         <v>7951</v>
       </c>
       <c r="B7951">
-        <v>67.9842749803496</v>
+        <v>67.98427498034958</v>
       </c>
     </row>
     <row r="7952" spans="1:2">
@@ -64007,7 +64007,7 @@
         <v>7958</v>
       </c>
       <c r="B7958">
-        <v>8.873927286730741</v>
+        <v>8.873927286730739</v>
       </c>
     </row>
     <row r="7959" spans="1:2">
@@ -64335,7 +64335,7 @@
         <v>7999</v>
       </c>
       <c r="B7999">
-        <v>64.81764240761376</v>
+        <v>64.81764240761375</v>
       </c>
     </row>
     <row r="8000" spans="1:2">
@@ -64383,7 +64383,7 @@
         <v>8005</v>
       </c>
       <c r="B8005">
-        <v>30.53448537604825</v>
+        <v>30.53448537604824</v>
       </c>
     </row>
     <row r="8006" spans="1:2">
@@ -64911,7 +64911,7 @@
         <v>8071</v>
       </c>
       <c r="B8071">
-        <v>65.9667739502049</v>
+        <v>65.96677395020488</v>
       </c>
     </row>
     <row r="8072" spans="1:2">
@@ -64935,7 +64935,7 @@
         <v>8074</v>
       </c>
       <c r="B8074">
-        <v>27.77938315580067</v>
+        <v>27.77938315580066</v>
       </c>
     </row>
     <row r="8075" spans="1:2">
@@ -65303,7 +65303,7 @@
         <v>8120</v>
       </c>
       <c r="B8120">
-        <v>4.526980412890203</v>
+        <v>4.526980412890202</v>
       </c>
     </row>
     <row r="8121" spans="1:2">
@@ -65479,7 +65479,7 @@
         <v>8142</v>
       </c>
       <c r="B8142">
-        <v>4.472645042322389</v>
+        <v>4.472645042322388</v>
       </c>
     </row>
     <row r="8143" spans="1:2">
@@ -65495,7 +65495,7 @@
         <v>8144</v>
       </c>
       <c r="B8144">
-        <v>6.722170413775277</v>
+        <v>6.722170413775276</v>
       </c>
     </row>
     <row r="8145" spans="1:2">
@@ -66487,7 +66487,7 @@
         <v>8268</v>
       </c>
       <c r="B8268">
-        <v>16.69819134139201</v>
+        <v>16.698191341392</v>
       </c>
     </row>
     <row r="8269" spans="1:2">
@@ -66631,7 +66631,7 @@
         <v>8286</v>
       </c>
       <c r="B8286">
-        <v>111.2764357403649</v>
+        <v>111.2764357403648</v>
       </c>
     </row>
     <row r="8287" spans="1:2">
@@ -66639,7 +66639,7 @@
         <v>8287</v>
       </c>
       <c r="B8287">
-        <v>75.06926733998762</v>
+        <v>75.0692673399876</v>
       </c>
     </row>
     <row r="8288" spans="1:2">
@@ -66671,7 +66671,7 @@
         <v>8291</v>
       </c>
       <c r="B8291">
-        <v>39.94089343292279</v>
+        <v>39.94089343292278</v>
       </c>
     </row>
     <row r="8292" spans="1:2">
@@ -66847,7 +66847,7 @@
         <v>8313</v>
       </c>
       <c r="B8313">
-        <v>48.73038695341519</v>
+        <v>48.73038695341518</v>
       </c>
     </row>
     <row r="8314" spans="1:2">
@@ -67031,7 +67031,7 @@
         <v>8336</v>
       </c>
       <c r="B8336">
-        <v>57.7033429441096</v>
+        <v>57.70334294410959</v>
       </c>
     </row>
     <row r="8337" spans="1:2">
@@ -67631,7 +67631,7 @@
         <v>8411</v>
       </c>
       <c r="B8411">
-        <v>50.08847814657187</v>
+        <v>50.08847814657186</v>
       </c>
     </row>
     <row r="8412" spans="1:2">
@@ -67791,7 +67791,7 @@
         <v>8431</v>
       </c>
       <c r="B8431">
-        <v>89.57364611437626</v>
+        <v>89.57364611437625</v>
       </c>
     </row>
     <row r="8432" spans="1:2">
@@ -68015,7 +68015,7 @@
         <v>8459</v>
       </c>
       <c r="B8459">
-        <v>29.25171343982754</v>
+        <v>29.25171343982753</v>
       </c>
     </row>
     <row r="8460" spans="1:2">
@@ -68031,7 +68031,7 @@
         <v>8461</v>
       </c>
       <c r="B8461">
-        <v>20.02774210451969</v>
+        <v>20.02774210451968</v>
       </c>
     </row>
     <row r="8462" spans="1:2">
@@ -68167,7 +68167,7 @@
         <v>8478</v>
       </c>
       <c r="B8478">
-        <v>68.03263170172872</v>
+        <v>68.0326317017287</v>
       </c>
     </row>
     <row r="8479" spans="1:2">
@@ -68375,7 +68375,7 @@
         <v>8504</v>
       </c>
       <c r="B8504">
-        <v>34.77434409236193</v>
+        <v>34.77434409236192</v>
       </c>
     </row>
     <row r="8505" spans="1:2">
@@ -68447,7 +68447,7 @@
         <v>8513</v>
       </c>
       <c r="B8513">
-        <v>20.45237273243611</v>
+        <v>20.4523727324361</v>
       </c>
     </row>
     <row r="8514" spans="1:2">
@@ -68903,7 +68903,7 @@
         <v>8570</v>
       </c>
       <c r="B8570">
-        <v>40.99067389340773</v>
+        <v>40.99067389340772</v>
       </c>
     </row>
     <row r="8571" spans="1:2">
@@ -68983,7 +68983,7 @@
         <v>8580</v>
       </c>
       <c r="B8580">
-        <v>90.41886298987558</v>
+        <v>90.41886298987556</v>
       </c>
     </row>
     <row r="8581" spans="1:2">
@@ -68999,7 +68999,7 @@
         <v>8582</v>
       </c>
       <c r="B8582">
-        <v>78.1854916940737</v>
+        <v>78.18549169407369</v>
       </c>
     </row>
     <row r="8583" spans="1:2">
@@ -69335,7 +69335,7 @@
         <v>8624</v>
       </c>
       <c r="B8624">
-        <v>147.1852578233849</v>
+        <v>147.1852578233848</v>
       </c>
     </row>
     <row r="8625" spans="1:2">
@@ -69359,7 +69359,7 @@
         <v>8627</v>
       </c>
       <c r="B8627">
-        <v>91.36137945021046</v>
+        <v>91.36137945021044</v>
       </c>
     </row>
     <row r="8628" spans="1:2">
@@ -69383,7 +69383,7 @@
         <v>8630</v>
       </c>
       <c r="B8630">
-        <v>70.92700127954816</v>
+        <v>70.92700127954815</v>
       </c>
     </row>
     <row r="8631" spans="1:2">
@@ -69407,7 +69407,7 @@
         <v>8633</v>
       </c>
       <c r="B8633">
-        <v>71.19926427446455</v>
+        <v>71.19926427446454</v>
       </c>
     </row>
     <row r="8634" spans="1:2">
@@ -69543,7 +69543,7 @@
         <v>8650</v>
       </c>
       <c r="B8650">
-        <v>69.4414241845738</v>
+        <v>69.44142418457379</v>
       </c>
     </row>
     <row r="8651" spans="1:2">
@@ -69567,7 +69567,7 @@
         <v>8653</v>
       </c>
       <c r="B8653">
-        <v>42.13453015730296</v>
+        <v>42.13453015730295</v>
       </c>
     </row>
     <row r="8654" spans="1:2">
@@ -69711,7 +69711,7 @@
         <v>8671</v>
       </c>
       <c r="B8671">
-        <v>99.68020088261277</v>
+        <v>99.68020088261274</v>
       </c>
     </row>
     <row r="8672" spans="1:2">
@@ -69751,7 +69751,7 @@
         <v>8676</v>
       </c>
       <c r="B8676">
-        <v>48.96484378434427</v>
+        <v>48.96484378434426</v>
       </c>
     </row>
     <row r="8677" spans="1:2">
@@ -69767,7 +69767,7 @@
         <v>8678</v>
       </c>
       <c r="B8678">
-        <v>43.01608784159628</v>
+        <v>43.01608784159627</v>
       </c>
     </row>
     <row r="8679" spans="1:2">
@@ -69775,7 +69775,7 @@
         <v>8679</v>
       </c>
       <c r="B8679">
-        <v>41.08504276785668</v>
+        <v>41.08504276785667</v>
       </c>
     </row>
     <row r="8680" spans="1:2">
@@ -69783,7 +69783,7 @@
         <v>8680</v>
       </c>
       <c r="B8680">
-        <v>42.24912093341954</v>
+        <v>42.24912093341953</v>
       </c>
     </row>
     <row r="8681" spans="1:2">
@@ -70271,7 +70271,7 @@
         <v>8741</v>
       </c>
       <c r="B8741">
-        <v>147.2936941076896</v>
+        <v>147.2936941076895</v>
       </c>
     </row>
     <row r="8742" spans="1:2">
@@ -70327,7 +70327,7 @@
         <v>8748</v>
       </c>
       <c r="B8748">
-        <v>98.00061076004458</v>
+        <v>98.00061076004457</v>
       </c>
     </row>
     <row r="8749" spans="1:2">
@@ -70335,7 +70335,7 @@
         <v>8749</v>
       </c>
       <c r="B8749">
-        <v>93.01723081864706</v>
+        <v>93.01723081864704</v>
       </c>
     </row>
     <row r="8750" spans="1:2">
@@ -70359,7 +70359,7 @@
         <v>8752</v>
       </c>
       <c r="B8752">
-        <v>78.12394677595482</v>
+        <v>78.12394677595481</v>
       </c>
     </row>
     <row r="8753" spans="1:2">
@@ -70367,7 +70367,7 @@
         <v>8753</v>
       </c>
       <c r="B8753">
-        <v>78.8777254873918</v>
+        <v>78.87772548739179</v>
       </c>
     </row>
     <row r="8754" spans="1:2">
@@ -70423,7 +70423,7 @@
         <v>8760</v>
       </c>
       <c r="B8760">
-        <v>0.450250898116198</v>
+        <v>0.4502508981161979</v>
       </c>
     </row>
   </sheetData>
